--- a/data/MANIFACTURING/MANIFACTURING ALIMENTAIRE/ALIMENTAIRE GENERALE/data_lait.xlsx
+++ b/data/MANIFACTURING/MANIFACTURING ALIMENTAIRE/ALIMENTAIRE GENERALE/data_lait.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\congo\Desktop\DATA_TECH\price_tracker_navigation\data\MANIFACTURING\MANIFACTURING ALIMENTAIRE\ALIMENTAIRE GENERALE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C65D8-1170-45F9-892B-896DDEB2911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBCA8F7-517B-4F30-9EBE-746CD195DE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A966063D-4918-410D-AAE0-A19C80D38408}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$G$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -811,7 +811,7 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/MANIFACTURING/MANIFACTURING ALIMENTAIRE/ALIMENTAIRE GENERALE/data_lait.xlsx
+++ b/data/MANIFACTURING/MANIFACTURING ALIMENTAIRE/ALIMENTAIRE GENERALE/data_lait.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\congo\Desktop\DATA_TECH\price_tracker_navigation\data\MANIFACTURING\MANIFACTURING ALIMENTAIRE\ALIMENTAIRE GENERALE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBCA8F7-517B-4F30-9EBE-746CD195DE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3336E1B2-0211-4DF2-A37C-D34B09A50893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A966063D-4918-410D-AAE0-A19C80D38408}"/>
   </bookViews>
@@ -382,9 +382,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -431,21 +430,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -463,6 +461,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -502,9 +504,9 @@
     <tableColumn id="2" xr3:uid="{02D24650-F988-4BF1-9938-FF11934509F4}" name=" Marque"/>
     <tableColumn id="3" xr3:uid="{601EB64C-0C02-42D2-8270-40BE9A0709D1}" name=" Type"/>
     <tableColumn id="4" xr3:uid="{CC2B99BF-7407-4392-B502-1EF0C3FC9296}" name="Gramage"/>
-    <tableColumn id="5" xr3:uid="{E14D0D0D-D37E-4F0A-9D86-481E8B6AB6AA}" name=" Prix" dataDxfId="1" dataCellStyle="Milliers"/>
+    <tableColumn id="5" xr3:uid="{E14D0D0D-D37E-4F0A-9D86-481E8B6AB6AA}" name=" Prix" dataDxfId="0" dataCellStyle="Milliers"/>
     <tableColumn id="6" xr3:uid="{09B42B3D-470F-4F1B-897B-FBAE31120D8A}" name="Origine"/>
-    <tableColumn id="7" xr3:uid="{77CFB8E1-2072-4AF5-BEE6-6F4B8D91DBF5}" name="Date" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{77CFB8E1-2072-4AF5-BEE6-6F4B8D91DBF5}" name="Date" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{F77BDFDF-D111-4945-8646-BE5ECB7F111B}" name="Format"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -811,7 +813,7 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -821,7 +823,7 @@
     <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.26953125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -841,7 +843,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -858,7 +860,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>19.8</v>
       </c>
       <c r="E2" t="s">
@@ -881,7 +883,7 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>8.5</v>
       </c>
       <c r="E3" t="s">
@@ -904,7 +906,7 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>85</v>
       </c>
       <c r="E4" t="s">
@@ -927,7 +929,7 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>10.1</v>
       </c>
       <c r="E5" t="s">
@@ -950,7 +952,7 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>8.1</v>
       </c>
       <c r="E6" t="s">
@@ -973,7 +975,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>10.1</v>
       </c>
       <c r="E7" t="s">
@@ -996,7 +998,7 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>8.5</v>
       </c>
       <c r="E8" t="s">
@@ -1019,7 +1021,7 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>8.5</v>
       </c>
       <c r="E9" t="s">
@@ -1042,7 +1044,7 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>10.1</v>
       </c>
       <c r="E10" t="s">
@@ -1065,7 +1067,7 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>20.6</v>
       </c>
       <c r="E11" t="s">
@@ -1088,7 +1090,7 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>20.6</v>
       </c>
       <c r="E12" t="s">
@@ -1111,7 +1113,7 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>19.8</v>
       </c>
       <c r="E13" t="s">
@@ -1134,7 +1136,7 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>19.2</v>
       </c>
       <c r="E14" t="s">
@@ -1157,7 +1159,7 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>20.100000000000001</v>
       </c>
       <c r="E15" t="s">
@@ -1180,7 +1182,7 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>10.1</v>
       </c>
       <c r="E16" t="s">
@@ -1203,7 +1205,7 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>18</v>
       </c>
       <c r="E17" t="s">
@@ -1226,7 +1228,7 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <v>6.5</v>
       </c>
       <c r="E18" t="s">
@@ -1249,7 +1251,7 @@
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>3</v>
       </c>
       <c r="E19" t="s">
@@ -1272,7 +1274,7 @@
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>25.6</v>
       </c>
       <c r="E20" t="s">
@@ -1295,7 +1297,7 @@
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <v>25</v>
       </c>
       <c r="E21" t="s">
@@ -1318,7 +1320,7 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="6">
         <v>21.2</v>
       </c>
       <c r="E22" t="s">
@@ -1341,7 +1343,7 @@
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="6">
         <v>8.4</v>
       </c>
       <c r="E23" t="s">
@@ -1364,7 +1366,7 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="6">
         <v>18.5</v>
       </c>
       <c r="E24" t="s">
@@ -1387,7 +1389,7 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="6">
         <v>14.4</v>
       </c>
       <c r="E25" t="s">
@@ -1410,7 +1412,7 @@
       <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="6">
         <v>21.5</v>
       </c>
       <c r="E26" t="s">
@@ -1433,7 +1435,7 @@
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="6">
         <v>21.5</v>
       </c>
       <c r="E27" t="s">
@@ -1456,7 +1458,7 @@
       <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="6">
         <v>20</v>
       </c>
       <c r="E28" t="s">
@@ -1479,7 +1481,7 @@
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="6">
         <v>19.5</v>
       </c>
       <c r="E29" t="s">
@@ -1502,7 +1504,7 @@
       <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="6">
         <v>20</v>
       </c>
       <c r="E30" t="s">
@@ -1525,7 +1527,7 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
         <v>23.4</v>
       </c>
       <c r="E31" t="s">
@@ -1548,7 +1550,7 @@
       <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="6">
         <v>22</v>
       </c>
       <c r="E32" t="s">
@@ -1571,7 +1573,7 @@
       <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="6">
         <v>19.7</v>
       </c>
       <c r="E33" t="s">
@@ -1594,7 +1596,7 @@
       <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="6">
         <v>19.7</v>
       </c>
       <c r="E34" t="s">
@@ -1617,7 +1619,7 @@
       <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="6">
         <v>18.899999999999999</v>
       </c>
       <c r="E35" t="s">
@@ -1640,7 +1642,7 @@
       <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="6">
         <v>18</v>
       </c>
       <c r="E36" t="s">
@@ -1660,7 +1662,7 @@
       <c r="C37" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="6">
         <v>23.6</v>
       </c>
       <c r="E37" t="s">
@@ -1683,7 +1685,7 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="6">
         <v>17.100000000000001</v>
       </c>
       <c r="E38" t="s">
@@ -1706,7 +1708,7 @@
       <c r="C39" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="6">
         <v>8.9</v>
       </c>
       <c r="E39" t="s">
@@ -1729,7 +1731,7 @@
       <c r="C40" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="6">
         <v>4</v>
       </c>
       <c r="E40" t="s">
@@ -1749,7 +1751,7 @@
       <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="6">
         <v>49</v>
       </c>
       <c r="E41" t="s">
@@ -1769,7 +1771,7 @@
       <c r="C42" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="6">
         <v>52.2</v>
       </c>
       <c r="E42" t="s">
@@ -1789,7 +1791,7 @@
       <c r="C43" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="6">
         <v>54.6</v>
       </c>
       <c r="E43" t="s">
@@ -1809,7 +1811,7 @@
       <c r="C44" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="6">
         <v>42</v>
       </c>
       <c r="E44" t="s">
@@ -1829,7 +1831,7 @@
       <c r="C45" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="6">
         <v>34</v>
       </c>
       <c r="E45" t="s">
@@ -1849,7 +1851,7 @@
       <c r="C46" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="6">
         <v>28</v>
       </c>
       <c r="E46" t="s">
@@ -1869,7 +1871,7 @@
       <c r="C47" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="6">
         <v>19</v>
       </c>
       <c r="E47" t="s">
@@ -1889,7 +1891,7 @@
       <c r="C48" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="6">
         <v>19</v>
       </c>
       <c r="E48" t="s">
@@ -1909,7 +1911,7 @@
       <c r="C49" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="6">
         <v>10.3</v>
       </c>
       <c r="E49" t="s">
@@ -1929,7 +1931,7 @@
       <c r="C50" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="6">
         <v>6</v>
       </c>
       <c r="E50" t="s">
@@ -1949,7 +1951,7 @@
       <c r="C51" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="6">
         <v>10</v>
       </c>
       <c r="E51" t="s">
@@ -1969,7 +1971,7 @@
       <c r="C52" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="6">
         <v>2.1</v>
       </c>
       <c r="E52" t="s">
@@ -1989,7 +1991,7 @@
       <c r="C53" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="6">
         <v>1.07</v>
       </c>
       <c r="E53" t="s">
@@ -2009,7 +2011,7 @@
       <c r="C54" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="6">
         <v>42</v>
       </c>
       <c r="E54" t="s">
@@ -2029,7 +2031,7 @@
       <c r="C55" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="6">
         <v>34</v>
       </c>
       <c r="E55" t="s">
@@ -2049,7 +2051,7 @@
       <c r="C56" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="6">
         <v>28</v>
       </c>
       <c r="E56" t="s">
@@ -2069,7 +2071,7 @@
       <c r="C57" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="6">
         <v>8.8000000000000007</v>
       </c>
       <c r="E57" t="s">
@@ -2089,7 +2091,7 @@
       <c r="C58" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="6">
         <v>10.1</v>
       </c>
       <c r="E58" t="s">
@@ -2109,7 +2111,7 @@
       <c r="C59" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="6">
         <v>10.1</v>
       </c>
       <c r="E59" t="s">
@@ -2129,7 +2131,7 @@
       <c r="C60" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="6">
         <v>19</v>
       </c>
       <c r="E60" t="s">
@@ -2149,7 +2151,7 @@
       <c r="C61" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="6">
         <v>27</v>
       </c>
       <c r="E61" t="s">
@@ -2169,7 +2171,7 @@
       <c r="C62" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="6">
         <v>18</v>
       </c>
       <c r="E62" t="s">
@@ -2189,7 +2191,7 @@
       <c r="C63" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="6">
         <v>13</v>
       </c>
       <c r="E63" t="s">
@@ -2209,7 +2211,7 @@
       <c r="C64" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="6">
         <v>38</v>
       </c>
       <c r="E64" t="s">
@@ -2229,7 +2231,7 @@
       <c r="C65" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="6">
         <v>32.5</v>
       </c>
       <c r="E65" t="s">
@@ -2249,7 +2251,7 @@
       <c r="C66" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="6">
         <v>39.200000000000003</v>
       </c>
       <c r="E66" t="s">
@@ -2269,7 +2271,7 @@
       <c r="C67" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="6">
         <v>40.700000000000003</v>
       </c>
       <c r="E67" t="s">
@@ -2289,7 +2291,7 @@
       <c r="C68" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="6">
         <v>11</v>
       </c>
       <c r="E68" t="s">
@@ -2309,7 +2311,7 @@
       <c r="C69" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="6">
         <v>7.7</v>
       </c>
       <c r="E69" t="s">
@@ -2329,7 +2331,7 @@
       <c r="C70" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="6">
         <v>17</v>
       </c>
       <c r="E70" t="s">
@@ -2352,7 +2354,7 @@
       <c r="C71" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="6">
         <v>2.9</v>
       </c>
       <c r="E71" t="s">
@@ -2375,7 +2377,7 @@
       <c r="C72" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="6">
         <v>92.8</v>
       </c>
       <c r="E72" t="s">
@@ -2398,7 +2400,7 @@
       <c r="C73" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="6">
         <v>97.5</v>
       </c>
       <c r="E73" t="s">
@@ -2421,7 +2423,7 @@
       <c r="C74" t="s">
         <v>38</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="6">
         <v>89.7</v>
       </c>
       <c r="E74" t="s">
@@ -2444,7 +2446,7 @@
       <c r="C75" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="6">
         <v>95.6</v>
       </c>
       <c r="E75" t="s">
@@ -2467,7 +2469,7 @@
       <c r="C76" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="6">
         <v>96.1</v>
       </c>
       <c r="E76" t="s">
@@ -2490,7 +2492,7 @@
       <c r="C77" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="6">
         <v>96.6</v>
       </c>
       <c r="E77" t="s">
@@ -2513,7 +2515,7 @@
       <c r="C78" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="6">
         <v>18</v>
       </c>
       <c r="E78" t="s">
@@ -2536,7 +2538,7 @@
       <c r="C79" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="6">
         <v>4</v>
       </c>
       <c r="E79" t="s">
@@ -2559,7 +2561,7 @@
       <c r="C80" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="6">
         <v>103</v>
       </c>
       <c r="E80" t="s">
@@ -2582,7 +2584,7 @@
       <c r="C81" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="6">
         <v>95.8</v>
       </c>
       <c r="E81" t="s">
@@ -2605,7 +2607,7 @@
       <c r="C82" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="E82" t="s">
@@ -2628,7 +2630,7 @@
       <c r="C83" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="6">
         <v>5.5</v>
       </c>
       <c r="E83" t="s">
@@ -2651,7 +2653,7 @@
       <c r="C84" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="6">
         <v>7.7</v>
       </c>
       <c r="E84" t="s">
@@ -2674,7 +2676,7 @@
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="6">
         <v>14.3</v>
       </c>
       <c r="E85" t="s">
@@ -2697,7 +2699,7 @@
       <c r="C86" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="6">
         <v>9.8000000000000007</v>
       </c>
       <c r="E86" t="s">
@@ -2720,7 +2722,7 @@
       <c r="C87" t="s">
         <v>60</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="6">
         <v>9.3000000000000007</v>
       </c>
       <c r="E87" t="s">

--- a/data/MANIFACTURING/MANIFACTURING ALIMENTAIRE/ALIMENTAIRE GENERALE/data_lait.xlsx
+++ b/data/MANIFACTURING/MANIFACTURING ALIMENTAIRE/ALIMENTAIRE GENERALE/data_lait.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\congo\Desktop\DATA_TECH\price_tracker_navigation\data\MANIFACTURING\MANIFACTURING ALIMENTAIRE\ALIMENTAIRE GENERALE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3336E1B2-0211-4DF2-A37C-D34B09A50893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77270F3-29DA-4D26-969A-708114D1BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A966063D-4918-410D-AAE0-A19C80D38408}"/>
   </bookViews>
@@ -382,8 +382,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -435,15 +436,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -462,9 +466,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -504,9 +505,9 @@
     <tableColumn id="2" xr3:uid="{02D24650-F988-4BF1-9938-FF11934509F4}" name=" Marque"/>
     <tableColumn id="3" xr3:uid="{601EB64C-0C02-42D2-8270-40BE9A0709D1}" name=" Type"/>
     <tableColumn id="4" xr3:uid="{CC2B99BF-7407-4392-B502-1EF0C3FC9296}" name="Gramage"/>
-    <tableColumn id="5" xr3:uid="{E14D0D0D-D37E-4F0A-9D86-481E8B6AB6AA}" name=" Prix" dataDxfId="0" dataCellStyle="Milliers"/>
+    <tableColumn id="5" xr3:uid="{E14D0D0D-D37E-4F0A-9D86-481E8B6AB6AA}" name=" Prix" dataDxfId="1" dataCellStyle="Milliers"/>
     <tableColumn id="6" xr3:uid="{09B42B3D-470F-4F1B-897B-FBAE31120D8A}" name="Origine"/>
-    <tableColumn id="7" xr3:uid="{77CFB8E1-2072-4AF5-BEE6-6F4B8D91DBF5}" name="Date" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{77CFB8E1-2072-4AF5-BEE6-6F4B8D91DBF5}" name="Date" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{F77BDFDF-D111-4945-8646-BE5ECB7F111B}" name="Format"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -813,7 +814,7 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,7 +844,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -860,7 +861,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>19.8</v>
       </c>
       <c r="E2" t="s">
@@ -883,7 +884,7 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>8.5</v>
       </c>
       <c r="E3" t="s">
@@ -906,7 +907,7 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>85</v>
       </c>
       <c r="E4" t="s">
@@ -929,7 +930,7 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>10.1</v>
       </c>
       <c r="E5" t="s">
@@ -952,7 +953,7 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>8.1</v>
       </c>
       <c r="E6" t="s">
@@ -975,7 +976,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>10.1</v>
       </c>
       <c r="E7" t="s">
@@ -998,7 +999,7 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>8.5</v>
       </c>
       <c r="E8" t="s">
@@ -1021,7 +1022,7 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>8.5</v>
       </c>
       <c r="E9" t="s">
@@ -1044,7 +1045,7 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>10.1</v>
       </c>
       <c r="E10" t="s">
@@ -1067,7 +1068,7 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>20.6</v>
       </c>
       <c r="E11" t="s">
@@ -1090,7 +1091,7 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>20.6</v>
       </c>
       <c r="E12" t="s">
@@ -1113,7 +1114,7 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>19.8</v>
       </c>
       <c r="E13" t="s">
@@ -1136,7 +1137,7 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>19.2</v>
       </c>
       <c r="E14" t="s">
@@ -1159,7 +1160,7 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>20.100000000000001</v>
       </c>
       <c r="E15" t="s">
@@ -1182,7 +1183,7 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>10.1</v>
       </c>
       <c r="E16" t="s">
@@ -1205,7 +1206,7 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>18</v>
       </c>
       <c r="E17" t="s">
@@ -1228,7 +1229,7 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>6.5</v>
       </c>
       <c r="E18" t="s">
@@ -1251,7 +1252,7 @@
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" t="s">
@@ -1274,7 +1275,7 @@
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>25.6</v>
       </c>
       <c r="E20" t="s">
@@ -1297,7 +1298,7 @@
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>25</v>
       </c>
       <c r="E21" t="s">
@@ -1320,7 +1321,7 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>21.2</v>
       </c>
       <c r="E22" t="s">
@@ -1343,7 +1344,7 @@
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>8.4</v>
       </c>
       <c r="E23" t="s">
@@ -1366,7 +1367,7 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>18.5</v>
       </c>
       <c r="E24" t="s">
@@ -1389,7 +1390,7 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>14.4</v>
       </c>
       <c r="E25" t="s">
@@ -1412,7 +1413,7 @@
       <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>21.5</v>
       </c>
       <c r="E26" t="s">
@@ -1435,7 +1436,7 @@
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>21.5</v>
       </c>
       <c r="E27" t="s">
@@ -1458,7 +1459,7 @@
       <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>20</v>
       </c>
       <c r="E28" t="s">
@@ -1481,7 +1482,7 @@
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>19.5</v>
       </c>
       <c r="E29" t="s">
@@ -1504,7 +1505,7 @@
       <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>20</v>
       </c>
       <c r="E30" t="s">
@@ -1527,7 +1528,7 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>23.4</v>
       </c>
       <c r="E31" t="s">
@@ -1550,7 +1551,7 @@
       <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>22</v>
       </c>
       <c r="E32" t="s">
@@ -1573,7 +1574,7 @@
       <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>19.7</v>
       </c>
       <c r="E33" t="s">
@@ -1596,7 +1597,7 @@
       <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>19.7</v>
       </c>
       <c r="E34" t="s">
@@ -1619,7 +1620,7 @@
       <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>18.899999999999999</v>
       </c>
       <c r="E35" t="s">
@@ -1642,7 +1643,7 @@
       <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>18</v>
       </c>
       <c r="E36" t="s">
@@ -1662,7 +1663,7 @@
       <c r="C37" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>23.6</v>
       </c>
       <c r="E37" t="s">
@@ -1685,7 +1686,7 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>17.100000000000001</v>
       </c>
       <c r="E38" t="s">
@@ -1708,7 +1709,7 @@
       <c r="C39" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>8.9</v>
       </c>
       <c r="E39" t="s">
@@ -1731,7 +1732,7 @@
       <c r="C40" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>4</v>
       </c>
       <c r="E40" t="s">
@@ -1751,7 +1752,7 @@
       <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>49</v>
       </c>
       <c r="E41" t="s">
@@ -1771,7 +1772,7 @@
       <c r="C42" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>52.2</v>
       </c>
       <c r="E42" t="s">
@@ -1791,7 +1792,7 @@
       <c r="C43" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>54.6</v>
       </c>
       <c r="E43" t="s">
@@ -1811,7 +1812,7 @@
       <c r="C44" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>42</v>
       </c>
       <c r="E44" t="s">
@@ -1831,7 +1832,7 @@
       <c r="C45" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>34</v>
       </c>
       <c r="E45" t="s">
@@ -1851,7 +1852,7 @@
       <c r="C46" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>28</v>
       </c>
       <c r="E46" t="s">
@@ -1871,7 +1872,7 @@
       <c r="C47" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>19</v>
       </c>
       <c r="E47" t="s">
@@ -1891,7 +1892,7 @@
       <c r="C48" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>19</v>
       </c>
       <c r="E48" t="s">
@@ -1911,7 +1912,7 @@
       <c r="C49" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>10.3</v>
       </c>
       <c r="E49" t="s">
@@ -1931,7 +1932,7 @@
       <c r="C50" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>6</v>
       </c>
       <c r="E50" t="s">
@@ -1951,7 +1952,7 @@
       <c r="C51" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>10</v>
       </c>
       <c r="E51" t="s">
@@ -1971,7 +1972,7 @@
       <c r="C52" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>2.1</v>
       </c>
       <c r="E52" t="s">
@@ -1991,7 +1992,7 @@
       <c r="C53" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>1.07</v>
       </c>
       <c r="E53" t="s">
@@ -2011,7 +2012,7 @@
       <c r="C54" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>42</v>
       </c>
       <c r="E54" t="s">
@@ -2031,7 +2032,7 @@
       <c r="C55" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>34</v>
       </c>
       <c r="E55" t="s">
@@ -2051,7 +2052,7 @@
       <c r="C56" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>28</v>
       </c>
       <c r="E56" t="s">
@@ -2071,7 +2072,7 @@
       <c r="C57" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>8.8000000000000007</v>
       </c>
       <c r="E57" t="s">
@@ -2091,7 +2092,7 @@
       <c r="C58" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>10.1</v>
       </c>
       <c r="E58" t="s">
@@ -2111,7 +2112,7 @@
       <c r="C59" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>10.1</v>
       </c>
       <c r="E59" t="s">
@@ -2131,7 +2132,7 @@
       <c r="C60" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>19</v>
       </c>
       <c r="E60" t="s">
@@ -2151,7 +2152,7 @@
       <c r="C61" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>27</v>
       </c>
       <c r="E61" t="s">
@@ -2171,7 +2172,7 @@
       <c r="C62" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>18</v>
       </c>
       <c r="E62" t="s">
@@ -2191,7 +2192,7 @@
       <c r="C63" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>13</v>
       </c>
       <c r="E63" t="s">
@@ -2211,7 +2212,7 @@
       <c r="C64" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>38</v>
       </c>
       <c r="E64" t="s">
@@ -2231,7 +2232,7 @@
       <c r="C65" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>32.5</v>
       </c>
       <c r="E65" t="s">
@@ -2251,7 +2252,7 @@
       <c r="C66" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>39.200000000000003</v>
       </c>
       <c r="E66" t="s">
@@ -2271,7 +2272,7 @@
       <c r="C67" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>40.700000000000003</v>
       </c>
       <c r="E67" t="s">
@@ -2291,7 +2292,7 @@
       <c r="C68" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>11</v>
       </c>
       <c r="E68" t="s">
@@ -2311,7 +2312,7 @@
       <c r="C69" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>7.7</v>
       </c>
       <c r="E69" t="s">
@@ -2331,7 +2332,7 @@
       <c r="C70" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>17</v>
       </c>
       <c r="E70" t="s">
@@ -2354,7 +2355,7 @@
       <c r="C71" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>2.9</v>
       </c>
       <c r="E71" t="s">
@@ -2377,7 +2378,7 @@
       <c r="C72" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>92.8</v>
       </c>
       <c r="E72" t="s">
@@ -2400,7 +2401,7 @@
       <c r="C73" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>97.5</v>
       </c>
       <c r="E73" t="s">
@@ -2423,7 +2424,7 @@
       <c r="C74" t="s">
         <v>38</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>89.7</v>
       </c>
       <c r="E74" t="s">
@@ -2446,7 +2447,7 @@
       <c r="C75" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>95.6</v>
       </c>
       <c r="E75" t="s">
@@ -2469,7 +2470,7 @@
       <c r="C76" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>96.1</v>
       </c>
       <c r="E76" t="s">
@@ -2492,7 +2493,7 @@
       <c r="C77" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>96.6</v>
       </c>
       <c r="E77" t="s">
@@ -2515,7 +2516,7 @@
       <c r="C78" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="5">
         <v>18</v>
       </c>
       <c r="E78" t="s">
@@ -2538,7 +2539,7 @@
       <c r="C79" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <v>4</v>
       </c>
       <c r="E79" t="s">
@@ -2561,7 +2562,7 @@
       <c r="C80" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <v>103</v>
       </c>
       <c r="E80" t="s">
@@ -2584,7 +2585,7 @@
       <c r="C81" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>95.8</v>
       </c>
       <c r="E81" t="s">
@@ -2607,7 +2608,7 @@
       <c r="C82" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>8.3000000000000007</v>
       </c>
       <c r="E82" t="s">
@@ -2630,7 +2631,7 @@
       <c r="C83" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <v>5.5</v>
       </c>
       <c r="E83" t="s">
@@ -2653,7 +2654,7 @@
       <c r="C84" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <v>7.7</v>
       </c>
       <c r="E84" t="s">
@@ -2676,7 +2677,7 @@
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="5">
         <v>14.3</v>
       </c>
       <c r="E85" t="s">
@@ -2699,7 +2700,7 @@
       <c r="C86" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="5">
         <v>9.8000000000000007</v>
       </c>
       <c r="E86" t="s">
@@ -2722,7 +2723,7 @@
       <c r="C87" t="s">
         <v>60</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="5">
         <v>9.3000000000000007</v>
       </c>
       <c r="E87" t="s">
